--- a/Report of Foresty_20241017/林業署前後測結果/圖表.xlsx
+++ b/Report of Foresty_20241017/林業署前後測結果/圖表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20241017\林業署前後測結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89C653E-11FD-4AC3-A615-DA0B0E2F157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDE57EC-B5C2-474A-883B-73759A1F5941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12840" windowWidth="16440" windowHeight="28320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$BG$241</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$BF$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$BF$2:$BF$241</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$BF$2:$BF$241</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$H$2:$H$241</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$BF$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$BF$2:$BF$241</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$H$2:$H$241</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$H$2:$H$241</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$BF$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$BF$2:$BF$241</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$H$2:$H$241</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$BF$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$BF$2:$BF$241</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$H$2:$H$241</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$BF$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -78,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="269">
   <si>
     <t>序號</t>
   </si>
@@ -970,13 +958,18 @@
   <si>
     <t>&lt; 2.2e-16</t>
   </si>
+  <si>
+    <t>總分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1032,7 +1025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1040,11 +1033,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1055,11 +1057,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1122,11 +1127,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="1"/>
-              <a:t>(a)</a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(A)</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>方法測驗</a:t>
             </a:r>
           </a:p>
@@ -1148,26 +1167,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1181,7 +1180,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各題_整體!$C$7</c:f>
+              <c:f>各題_整體!$Z$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1202,84 +1201,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>各題_整體!$D$4:$M$4</c:f>
+              <c:f>各題_整體!$Y$14:$Y$23</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>調查次數</c:v>
+                  <c:v>環境照片</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>月份</c:v>
+                  <c:v>GPS照片</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>時間</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>樣點距離</c:v>
+                  <c:v>調查次數</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>停留時間</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>猴群</c:v>
+                  <c:v>月份</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>環境照片</c:v>
+                  <c:v>主調</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GPS照片</c:v>
+                  <c:v>小幫手</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>主調</c:v>
+                  <c:v>樣點距離</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>小幫手</c:v>
+                  <c:v>猴群</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各題_整體!$D$7:$M$7</c:f>
+              <c:f>各題_整體!$Z$14:$Z$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.833333333333329</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>74.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>66.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.666666666666668</c:v>
+                  <c:v>50.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>50.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.5</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.833333333333329</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.5</c:v>
+                  <c:v>21.666666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-77A6-4118-BE04-700EB401AD90}"/>
+              <c16:uniqueId val="{00000003-3B2A-4D29-8E25-D75AC580C4D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1288,7 +1287,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各題_整體!$C$8</c:f>
+              <c:f>各題_整體!$AA$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1309,84 +1308,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>各題_整體!$D$4:$M$4</c:f>
+              <c:f>各題_整體!$Y$14:$Y$23</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>調查次數</c:v>
+                  <c:v>環境照片</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>月份</c:v>
+                  <c:v>GPS照片</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>時間</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>樣點距離</c:v>
+                  <c:v>調查次數</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>停留時間</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>猴群</c:v>
+                  <c:v>月份</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>環境照片</c:v>
+                  <c:v>主調</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GPS照片</c:v>
+                  <c:v>小幫手</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>主調</c:v>
+                  <c:v>樣點距離</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>小幫手</c:v>
+                  <c:v>猴群</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各題_整體!$D$8:$M$8</c:f>
+              <c:f>各題_整體!$AA$14:$AA$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>96.666666666666671</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.666666666666671</c:v>
+                  <c:v>99.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.666666666666671</c:v>
+                  <c:v>96.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>99.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>86.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>89.166666666666671</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>97.5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>99.166666666666671</c:v>
+                  <c:v>81.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.166666666666671</c:v>
+                  <c:v>86.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.666666666666671</c:v>
+                  <c:v>89.166666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-77A6-4118-BE04-700EB401AD90}"/>
+              <c16:uniqueId val="{00000005-3B2A-4D29-8E25-D75AC580C4D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1543,28 +1542,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1600,13 +1579,6 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
@@ -1641,14 +1613,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2975,11 +2941,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="1"/>
-              <a:t>(b)</a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(B)</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>外形測驗</a:t>
             </a:r>
           </a:p>
@@ -3014,7 +2994,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各題_整體!$C$7</c:f>
+              <c:f>各題_整體!$Z$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3035,84 +3015,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>各題_整體!$N$4:$W$4</c:f>
+              <c:f>各題_整體!$Y$24:$Y$33</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>紅嘴黑鵯</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>斯氏繡眼</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>黃腹琉璃</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>灰喉山椒鳥</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>青背山雀</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>小卷尾</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>斯氏繡眼</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>繡眼畫眉</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>灰喉山椒鳥</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>黃腹琉璃</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>白耳畫眉</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>松鴉</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>冠羽畫眉</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>青背山雀</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各題_整體!$N$7:$W$7</c:f>
+              <c:f>各題_整體!$Z$24:$Z$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>96.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>37.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.166666666666664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>76.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.833333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-6CBC-4BF3-A3BC-98100EA88E07}"/>
+              <c16:uniqueId val="{00000003-5E9F-4378-A345-6DC55CF01A02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3121,7 +3101,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各題_整體!$C$8</c:f>
+              <c:f>各題_整體!$AA$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3142,84 +3122,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>各題_整體!$N$4:$W$4</c:f>
+              <c:f>各題_整體!$Y$24:$Y$33</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>紅嘴黑鵯</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>冠羽畫眉</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>白耳畫眉</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>斯氏繡眼</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>黃腹琉璃</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>灰喉山椒鳥</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>青背山雀</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>繡眼畫眉</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>小卷尾</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>斯氏繡眼</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>繡眼畫眉</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>灰喉山椒鳥</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>黃腹琉璃</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>白耳畫眉</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>松鴉</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>冠羽畫眉</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>青背山雀</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各題_整體!$N$8:$W$8</c:f>
+              <c:f>各題_整體!$AA$24:$AA$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>89.166666666666671</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.166666666666671</c:v>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>54.166666666666664</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>85</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.666666666666657</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>89.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-6CBC-4BF3-A3BC-98100EA88E07}"/>
+              <c16:uniqueId val="{00000005-5E9F-4378-A345-6DC55CF01A02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3377,7 +3357,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3512,11 +3492,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="1"/>
-              <a:t>(c)</a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(C)</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>鳥音測驗</a:t>
             </a:r>
           </a:p>
@@ -3551,7 +3545,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各題_整體!$C$7</c:f>
+              <c:f>各題_整體!$Z$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3572,84 +3566,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>各題_整體!$X$4:$AG$4</c:f>
+              <c:f>各題_整體!$Y$34:$Y$43</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>五色鳥</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小啄木</c:v>
+                  <c:v>樹鵲</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>樹鵲</c:v>
+                  <c:v>巨嘴鴉</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小彎嘴</c:v>
+                  <c:v>棕面鶯</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>山紅頭</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>黑枕藍鶲</c:v>
+                  <c:v>小彎嘴</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>巨嘴鴉</c:v>
+                  <c:v>灰喉山椒鳥</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>灰喉山椒鳥</c:v>
+                  <c:v>小啄木</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>棕面鶯</c:v>
+                  <c:v>白耳畫眉</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>白耳畫眉</c:v>
+                  <c:v>黑枕藍鶲</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各題_整體!$X$7:$AG$7</c:f>
+              <c:f>各題_整體!$Z$34:$Z$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.333333333333329</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.5</c:v>
+                  <c:v>61.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.333333333333336</c:v>
+                  <c:v>59.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>48.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.666666666666671</c:v>
+                  <c:v>39.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.166666666666664</c:v>
+                  <c:v>33.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.166666666666664</c:v>
+                  <c:v>33.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.333333333333329</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-2FE8-43C2-A39D-5BB0E4D7D85C}"/>
+              <c16:uniqueId val="{00000003-0004-426A-8FFB-7636C3902B93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3658,7 +3652,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各題_整體!$C$8</c:f>
+              <c:f>各題_整體!$AA$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3679,84 +3673,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>各題_整體!$X$4:$AG$4</c:f>
+              <c:f>各題_整體!$Y$34:$Y$43</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>五色鳥</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>小啄木</c:v>
+                  <c:v>樹鵲</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>樹鵲</c:v>
+                  <c:v>巨嘴鴉</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>小彎嘴</c:v>
+                  <c:v>棕面鶯</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>山紅頭</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>黑枕藍鶲</c:v>
+                  <c:v>小彎嘴</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>巨嘴鴉</c:v>
+                  <c:v>灰喉山椒鳥</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>灰喉山椒鳥</c:v>
+                  <c:v>小啄木</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>棕面鶯</c:v>
+                  <c:v>白耳畫眉</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>白耳畫眉</c:v>
+                  <c:v>黑枕藍鶲</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各題_整體!$X$8:$AG$8</c:f>
+              <c:f>各題_整體!$AA$34:$AA$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.833333333333329</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>93.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.333333333333336</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.666666666666657</c:v>
+                  <c:v>58.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.333333333333329</c:v>
+                  <c:v>51.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.666666666666671</c:v>
+                  <c:v>60.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>58.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.333333333333336</c:v>
+                  <c:v>66.666666666666657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-2FE8-43C2-A39D-5BB0E4D7D85C}"/>
+              <c16:uniqueId val="{00000005-0004-426A-8FFB-7636C3902B93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3914,7 +3908,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6628,10 +6622,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6641,7 +6635,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9C4E5EDA-C562-454A-993D-EE1D4DC149BB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>總分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6775,43 +6769,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7869,509 +7826,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8459,23 +7913,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>348636</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>176175</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>60375</xdr:rowOff>
+      <xdr:rowOff>47175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3">
+        <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDCDF6D-D6AB-2DF3-2895-5809E5FED04B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3F46CF-E234-0D82-9185-36C26FFE6B4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8495,23 +7949,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>348636</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>79426</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>166650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>18600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4">
+        <xdr:cNvPr id="3" name="圖表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6D94A4-F31E-ABB2-B5BC-A014DD757250}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1D37CB-9F07-2FAB-D6D8-8FB747EE7621}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8531,23 +7985,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>348636</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>93713</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>185700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="圖表 6">
+        <xdr:cNvPr id="6" name="圖表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5050A69-979E-9143-8514-E22C89AD5A7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2370EDBA-E21A-88FF-6AD4-91FB0B78F107}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -51734,14 +51188,14 @@
       <c r="H36" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <f>MEDIAN($I$37:$I$138)</f>
         <v>54</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="7">
         <f>MEDIAN($L$37:$L$138)</f>
         <v>84</v>
       </c>
@@ -51769,7 +51223,7 @@
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>248</v>
       </c>
       <c r="E38">
@@ -54613,23 +54067,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC100BB1-F77E-44CF-9E17-A468783E66A5}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -54640,7 +54095,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -54654,7 +54109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -54667,8 +54122,14 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
+      <c r="M5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -54681,8 +54142,19 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
+      <c r="L6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M6" s="2">
+        <f>INDEX(C$4:C$13,MATCH($L6,$B$4:$B$13,0))</f>
+        <v>2.37</v>
+      </c>
+      <c r="N6" s="2">
+        <f>INDEX(D$4:D$13,MATCH($L6,$B$4:$B$13,0))</f>
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -54695,8 +54167,19 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
+      <c r="L7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M13" si="0">INDEX(C$4:C$13,MATCH($L7,$B$4:$B$13,0))</f>
+        <v>4.88</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7:N13" si="1">INDEX(D$4:D$13,MATCH($L7,$B$4:$B$13,0))</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -54709,8 +54192,19 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
+      <c r="L8" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>6.44</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -54723,8 +54217,19 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
+      <c r="L9" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -54737,8 +54242,19 @@
       <c r="D10" s="2">
         <v>0.02</v>
       </c>
+      <c r="L10" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>7.57</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -54751,8 +54267,19 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
+      <c r="L11" t="s">
+        <v>217</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>6.98</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -54765,8 +54292,19 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
+      <c r="L12" t="s">
+        <v>224</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>8.31</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -54779,8 +54317,19 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
+      <c r="L13" t="s">
+        <v>225</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>7.53</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -54793,8 +54342,19 @@
       <c r="D14" s="2">
         <v>0.66</v>
       </c>
+      <c r="L14" t="s">
+        <v>219</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" ref="M14:M15" si="2">INDEX(C$4:C$13,MATCH($L14,$B$4:$B$13,0))</f>
+        <v>9.31</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" ref="N14:N15" si="3">INDEX(D$4:D$13,MATCH($L14,$B$4:$B$13,0))</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -54807,8 +54367,19 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
+      <c r="L15" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="2"/>
+        <v>15.16</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -54821,8 +54392,19 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
+      <c r="L16" t="s">
+        <v>226</v>
+      </c>
+      <c r="M16" s="2">
+        <f>INDEX(C$14:C$23,MATCH($L16,$B$14:$B$23,0))</f>
+        <v>0.45</v>
+      </c>
+      <c r="N16" s="2">
+        <f>INDEX(D$14:D$23,MATCH($L16,$B$14:$B$23,0))</f>
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -54835,8 +54417,19 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
+      <c r="L17" t="s">
+        <v>234</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" ref="M17:M26" si="4">INDEX(C$14:C$23,MATCH($L17,$B$14:$B$23,0))</f>
+        <v>1.42</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" ref="N17:N26" si="5">INDEX(D$14:D$23,MATCH($L17,$B$14:$B$23,0))</f>
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -54849,8 +54442,19 @@
       <c r="D18" s="2">
         <v>0.24</v>
       </c>
+      <c r="L18" t="s">
+        <v>232</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="4"/>
+        <v>3.88</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -54863,8 +54467,19 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
+      <c r="L19" t="s">
+        <v>228</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -54877,8 +54492,19 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
+      <c r="L20" t="s">
+        <v>231</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="4"/>
+        <v>4.97</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -54891,8 +54517,19 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
+      <c r="L21" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="4"/>
+        <v>1.18</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -54905,8 +54542,19 @@
       <c r="D22" s="2">
         <v>0.16</v>
       </c>
+      <c r="L22" t="s">
+        <v>235</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="4"/>
+        <v>4.57</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -54919,8 +54567,19 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="4"/>
+        <v>7.74</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -54933,8 +54592,19 @@
       <c r="D24" s="2">
         <v>0.02</v>
       </c>
+      <c r="L24" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="4"/>
+        <v>11.28</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -54947,8 +54617,19 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
+      <c r="L25" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -54961,8 +54642,19 @@
       <c r="D26" s="2">
         <v>0.6</v>
       </c>
+      <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" s="2">
+        <f>INDEX(C$24:C$33,MATCH($L26,$B$24:$B$33,0))</f>
+        <v>2.37</v>
+      </c>
+      <c r="N26" s="2">
+        <f>INDEX(D$24:D$33,MATCH($L26,$B$24:$B$33,0))</f>
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -54975,8 +54667,19 @@
       <c r="D27" s="2">
         <v>0.09</v>
       </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" ref="M27:M35" si="6">INDEX(C$24:C$33,MATCH($L27,$B$24:$B$33,0))</f>
+        <v>0.52</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" ref="N27:N35" si="7">INDEX(D$24:D$33,MATCH($L27,$B$24:$B$33,0))</f>
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -54989,8 +54692,19 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="6"/>
+        <v>6.69</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -55003,8 +54717,19 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="6"/>
+        <v>4.05</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -55017,8 +54742,19 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
+      <c r="L30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="6"/>
+        <v>5.2</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -55031,8 +54767,19 @@
       <c r="D31" s="2">
         <v>0.03</v>
       </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="6"/>
+        <v>1.71</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="7"/>
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -55045,8 +54792,19 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
+      <c r="L32" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -55059,8 +54817,19 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
+      <c r="L33" t="s">
+        <v>237</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="6"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -55073,8 +54842,19 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
+      <c r="L34" t="s">
+        <v>232</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="6"/>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -55087,8 +54867,19 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
+      <c r="L35" t="s">
+        <v>241</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="6"/>
+        <v>8.17</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -55102,7 +54893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -55116,9 +54907,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>57</v>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
@@ -55143,10 +54934,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4312A38C-5DAD-48B5-B5D7-159DA1F105EB}">
-  <dimension ref="B2:AG8"/>
+  <dimension ref="B2:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13:AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55598,7 +55389,7 @@
       </c>
     </row>
     <row r="7" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -55726,7 +55517,7 @@
       </c>
     </row>
     <row r="8" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
         <v>248</v>
       </c>
@@ -55851,7 +55642,438 @@
         <v>58.333333333333336</v>
       </c>
     </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="Z13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="X14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>90</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="X15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>82.5</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>99.166666666666671</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="X16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>74.166666666666671</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>72.5</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>99.166666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>50.833333333333329</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="20" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>50.833333333333329</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>89.166666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>81.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>40</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="23" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>89.166666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="25" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>85</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>91.666666666666657</v>
+      </c>
+    </row>
+    <row r="27" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>89.166666666666671</v>
+      </c>
+    </row>
+    <row r="28" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>61.666666666666671</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>49.166666666666664</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>54.166666666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>45.833333333333329</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="32" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>89.166666666666671</v>
+      </c>
+    </row>
+    <row r="33" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>35</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="34" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>87.5</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>72.5</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>61.666666666666671</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="37" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>50</v>
+      </c>
+      <c r="AA38" s="9">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="39" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X39" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>48.333333333333336</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>39.166666666666664</v>
+      </c>
+      <c r="AA40" s="9">
+        <v>51.666666666666671</v>
+      </c>
+    </row>
+    <row r="41" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AA41" s="9">
+        <v>60.833333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AA42" s="9">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="43" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X43" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z43" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA43" s="9">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X14:AA23">
+    <sortCondition descending="1" ref="Z14:Z23"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B7:B8"/>
   </mergeCells>
@@ -56083,7 +56305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE584073-5836-4B7A-A12D-9BBACF630426}">
   <dimension ref="F2:AL8"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
@@ -56286,7 +56508,7 @@
       </c>
     </row>
     <row r="5" spans="6:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>244</v>
       </c>
       <c r="G5" t="s">
@@ -56417,7 +56639,7 @@
       </c>
     </row>
     <row r="6" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F6" s="6"/>
+      <c r="F6" s="8"/>
       <c r="G6" t="s">
         <v>60</v>
       </c>
@@ -56546,7 +56768,7 @@
       </c>
     </row>
     <row r="7" spans="6:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>244</v>
       </c>
       <c r="G7" t="s">
@@ -56677,7 +56899,7 @@
       </c>
     </row>
     <row r="8" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F8" s="6"/>
+      <c r="F8" s="8"/>
       <c r="G8" t="s">
         <v>60</v>
       </c>

--- a/Report of Foresty_20241017/林業署前後測結果/圖表.xlsx
+++ b/Report of Foresty_20241017/林業署前後測結果/圖表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20241017\林業署前後測結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDE57EC-B5C2-474A-883B-73759A1F5941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ACD382-F455-4ADD-856B-C9BE51228766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1059,12 +1059,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1082,6 +1082,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF595959"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1146,7 +1151,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>方法測驗</a:t>
+              <a:t>調查方法</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1543,7 +1548,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2960,7 +2965,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>外形測驗</a:t>
+              <a:t>鳥類外形辨識</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3357,7 +3362,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3511,7 +3516,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>鳥音測驗</a:t>
+              <a:t>鳥類聲音辨識</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3908,7 +3913,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6690,6 +6695,34 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>分數</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1600"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>分數</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorTickMarks type="in"/>
         <cx:tickLabels/>
         <cx:spPr>
@@ -7906,6 +7939,77 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8140CE3E-8FB3-2B91-0F53-7175ED465072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="3162299"/>
+          <a:ext cx="352425" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分數</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -51090,8 +51194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206759D-B505-4B8F-BB77-3C405BB2B772}">
   <dimension ref="A9:L240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54069,7 +54173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC100BB1-F77E-44CF-9E17-A468783E66A5}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
@@ -54367,14 +54471,14 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <f t="shared" si="2"/>
         <v>15.16</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -54421,11 +54525,11 @@
         <v>234</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" ref="M17:M26" si="4">INDEX(C$14:C$23,MATCH($L17,$B$14:$B$23,0))</f>
+        <f t="shared" ref="M17:M25" si="4">INDEX(C$14:C$23,MATCH($L17,$B$14:$B$23,0))</f>
         <v>1.42</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17:N26" si="5">INDEX(D$14:D$23,MATCH($L17,$B$14:$B$23,0))</f>
+        <f t="shared" ref="N17:N25" si="5">INDEX(D$14:D$23,MATCH($L17,$B$14:$B$23,0))</f>
         <v>0.16</v>
       </c>
     </row>
@@ -54617,14 +54721,14 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
         <f t="shared" si="4"/>
         <v>9.75</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -54936,8 +55040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4312A38C-5DAD-48B5-B5D7-159DA1F105EB}">
   <dimension ref="B2:AG43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13:AA43"/>
+    <sheetView tabSelected="1" topLeftCell="S18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT46" sqref="AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55389,7 +55493,7 @@
       </c>
     </row>
     <row r="7" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>244</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -55517,7 +55621,7 @@
       </c>
     </row>
     <row r="8" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
         <v>248</v>
       </c>
@@ -55657,10 +55761,10 @@
       <c r="Y14" t="s">
         <v>222</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="8">
         <v>90</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="8">
         <v>97.5</v>
       </c>
     </row>
@@ -55671,10 +55775,10 @@
       <c r="Y15" t="s">
         <v>223</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Z15" s="8">
         <v>82.5</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AA15" s="8">
         <v>99.166666666666671</v>
       </c>
     </row>
@@ -55685,10 +55789,10 @@
       <c r="Y16" t="s">
         <v>218</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="8">
         <v>74.166666666666671</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="8">
         <v>100</v>
       </c>
     </row>
@@ -55699,10 +55803,10 @@
       <c r="Y17" t="s">
         <v>216</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="8">
         <v>72.5</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="8">
         <v>96.666666666666671</v>
       </c>
     </row>
@@ -55713,10 +55817,10 @@
       <c r="Y18" t="s">
         <v>220</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="8">
         <v>66.666666666666657</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="8">
         <v>99.166666666666671</v>
       </c>
     </row>
@@ -55727,10 +55831,10 @@
       <c r="Y19" t="s">
         <v>217</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="Z19" s="8">
         <v>50.833333333333329</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AA19" s="8">
         <v>86.666666666666671</v>
       </c>
     </row>
@@ -55741,10 +55845,10 @@
       <c r="Y20" t="s">
         <v>224</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="8">
         <v>50.833333333333329</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="8">
         <v>89.166666666666671</v>
       </c>
     </row>
@@ -55755,10 +55859,10 @@
       <c r="Y21" t="s">
         <v>225</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="8">
         <v>42.5</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="8">
         <v>81.666666666666671</v>
       </c>
     </row>
@@ -55769,10 +55873,10 @@
       <c r="Y22" t="s">
         <v>219</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22" s="8">
         <v>40</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="8">
         <v>86.666666666666671</v>
       </c>
     </row>
@@ -55783,10 +55887,10 @@
       <c r="Y23" t="s">
         <v>221</v>
       </c>
-      <c r="Z23" s="9">
+      <c r="Z23" s="8">
         <v>21.666666666666668</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA23" s="8">
         <v>89.166666666666671</v>
       </c>
     </row>
@@ -55797,10 +55901,10 @@
       <c r="Y24" t="s">
         <v>226</v>
       </c>
-      <c r="Z24" s="9">
+      <c r="Z24" s="8">
         <v>96.666666666666671</v>
       </c>
-      <c r="AA24" s="9">
+      <c r="AA24" s="8">
         <v>97.5</v>
       </c>
     </row>
@@ -55811,10 +55915,10 @@
       <c r="Y25" t="s">
         <v>234</v>
       </c>
-      <c r="Z25" s="9">
+      <c r="Z25" s="8">
         <v>85</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AA25" s="8">
         <v>90</v>
       </c>
     </row>
@@ -55825,10 +55929,10 @@
       <c r="Y26" t="s">
         <v>232</v>
       </c>
-      <c r="Z26" s="9">
+      <c r="Z26" s="8">
         <v>76.666666666666671</v>
       </c>
-      <c r="AA26" s="9">
+      <c r="AA26" s="8">
         <v>91.666666666666657</v>
       </c>
     </row>
@@ -55839,10 +55943,10 @@
       <c r="Y27" t="s">
         <v>228</v>
       </c>
-      <c r="Z27" s="9">
+      <c r="Z27" s="8">
         <v>71.666666666666671</v>
       </c>
-      <c r="AA27" s="9">
+      <c r="AA27" s="8">
         <v>89.166666666666671</v>
       </c>
     </row>
@@ -55853,10 +55957,10 @@
       <c r="Y28" t="s">
         <v>231</v>
       </c>
-      <c r="Z28" s="9">
+      <c r="Z28" s="8">
         <v>61.666666666666671</v>
       </c>
-      <c r="AA28" s="9">
+      <c r="AA28" s="8">
         <v>85</v>
       </c>
     </row>
@@ -55867,10 +55971,10 @@
       <c r="Y29" t="s">
         <v>230</v>
       </c>
-      <c r="Z29" s="9">
+      <c r="Z29" s="8">
         <v>49.166666666666664</v>
       </c>
-      <c r="AA29" s="9">
+      <c r="AA29" s="8">
         <v>54.166666666666664</v>
       </c>
     </row>
@@ -55881,10 +55985,10 @@
       <c r="Y30" t="s">
         <v>235</v>
       </c>
-      <c r="Z30" s="9">
+      <c r="Z30" s="8">
         <v>45.833333333333329</v>
       </c>
-      <c r="AA30" s="9">
+      <c r="AA30" s="8">
         <v>70</v>
       </c>
     </row>
@@ -55895,10 +55999,10 @@
       <c r="Y31" t="s">
         <v>229</v>
       </c>
-      <c r="Z31" s="9">
+      <c r="Z31" s="8">
         <v>43.333333333333336</v>
       </c>
-      <c r="AA31" s="9">
+      <c r="AA31" s="8">
         <v>82.5</v>
       </c>
     </row>
@@ -55909,10 +56013,10 @@
       <c r="Y32" t="s">
         <v>227</v>
       </c>
-      <c r="Z32" s="9">
+      <c r="Z32" s="8">
         <v>37.5</v>
       </c>
-      <c r="AA32" s="9">
+      <c r="AA32" s="8">
         <v>89.166666666666671</v>
       </c>
     </row>
@@ -55923,10 +56027,10 @@
       <c r="Y33" t="s">
         <v>233</v>
       </c>
-      <c r="Z33" s="9">
+      <c r="Z33" s="8">
         <v>35</v>
       </c>
-      <c r="AA33" s="9">
+      <c r="AA33" s="8">
         <v>82.5</v>
       </c>
     </row>
@@ -55937,10 +56041,10 @@
       <c r="Y34" t="s">
         <v>236</v>
       </c>
-      <c r="Z34" s="9">
+      <c r="Z34" s="8">
         <v>87.5</v>
       </c>
-      <c r="AA34" s="9">
+      <c r="AA34" s="8">
         <v>95</v>
       </c>
     </row>
@@ -55951,10 +56055,10 @@
       <c r="Y35" t="s">
         <v>238</v>
       </c>
-      <c r="Z35" s="9">
+      <c r="Z35" s="8">
         <v>72.5</v>
       </c>
-      <c r="AA35" s="9">
+      <c r="AA35" s="8">
         <v>75</v>
       </c>
     </row>
@@ -55965,10 +56069,10 @@
       <c r="Y36" t="s">
         <v>242</v>
       </c>
-      <c r="Z36" s="9">
+      <c r="Z36" s="8">
         <v>61.666666666666671</v>
       </c>
-      <c r="AA36" s="9">
+      <c r="AA36" s="8">
         <v>93.333333333333329</v>
       </c>
     </row>
@@ -55979,10 +56083,10 @@
       <c r="Y37" t="s">
         <v>243</v>
       </c>
-      <c r="Z37" s="9">
+      <c r="Z37" s="8">
         <v>59.166666666666664</v>
       </c>
-      <c r="AA37" s="9">
+      <c r="AA37" s="8">
         <v>80</v>
       </c>
     </row>
@@ -55993,10 +56097,10 @@
       <c r="Y38" t="s">
         <v>240</v>
       </c>
-      <c r="Z38" s="9">
+      <c r="Z38" s="8">
         <v>50</v>
       </c>
-      <c r="AA38" s="9">
+      <c r="AA38" s="8">
         <v>77.5</v>
       </c>
     </row>
@@ -56007,10 +56111,10 @@
       <c r="Y39" t="s">
         <v>239</v>
       </c>
-      <c r="Z39" s="9">
+      <c r="Z39" s="8">
         <v>48.333333333333336</v>
       </c>
-      <c r="AA39" s="9">
+      <c r="AA39" s="8">
         <v>58.333333333333336</v>
       </c>
     </row>
@@ -56021,10 +56125,10 @@
       <c r="Y40" t="s">
         <v>230</v>
       </c>
-      <c r="Z40" s="9">
+      <c r="Z40" s="8">
         <v>39.166666666666664</v>
       </c>
-      <c r="AA40" s="9">
+      <c r="AA40" s="8">
         <v>51.666666666666671</v>
       </c>
     </row>
@@ -56035,10 +56139,10 @@
       <c r="Y41" t="s">
         <v>237</v>
       </c>
-      <c r="Z41" s="9">
+      <c r="Z41" s="8">
         <v>33.333333333333329</v>
       </c>
-      <c r="AA41" s="9">
+      <c r="AA41" s="8">
         <v>60.833333333333329</v>
       </c>
     </row>
@@ -56049,10 +56153,10 @@
       <c r="Y42" t="s">
         <v>232</v>
       </c>
-      <c r="Z42" s="9">
+      <c r="Z42" s="8">
         <v>33.333333333333329</v>
       </c>
-      <c r="AA42" s="9">
+      <c r="AA42" s="8">
         <v>58.333333333333336</v>
       </c>
     </row>
@@ -56063,10 +56167,10 @@
       <c r="Y43" t="s">
         <v>241</v>
       </c>
-      <c r="Z43" s="9">
+      <c r="Z43" s="8">
         <v>25</v>
       </c>
-      <c r="AA43" s="9">
+      <c r="AA43" s="8">
         <v>66.666666666666657</v>
       </c>
     </row>
@@ -56508,7 +56612,7 @@
       </c>
     </row>
     <row r="5" spans="6:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>244</v>
       </c>
       <c r="G5" t="s">
@@ -56639,7 +56743,7 @@
       </c>
     </row>
     <row r="6" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F6" s="8"/>
+      <c r="F6" s="11"/>
       <c r="G6" t="s">
         <v>60</v>
       </c>
@@ -56768,7 +56872,7 @@
       </c>
     </row>
     <row r="7" spans="6:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="11" t="s">
         <v>244</v>
       </c>
       <c r="G7" t="s">
@@ -56899,7 +57003,7 @@
       </c>
     </row>
     <row r="8" spans="6:38" x14ac:dyDescent="0.25">
-      <c r="F8" s="8"/>
+      <c r="F8" s="11"/>
       <c r="G8" t="s">
         <v>60</v>
       </c>
